--- a/sourceData/pdrb.xlsx
+++ b/sourceData/pdrb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\binus\gemastik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\GitHub\gemastik_time_series\sourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9518F9-4C4A-442D-9BC7-1757A22B7A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42310EE-6D98-4890-815A-543D62290664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,12 +62,6 @@
     <t>LAMPUNG</t>
   </si>
   <si>
-    <t>KEP. BANGKA BELITUNG</t>
-  </si>
-  <si>
-    <t>KEP. RIAU</t>
-  </si>
-  <si>
     <t>DKI JAKARTA</t>
   </si>
   <si>
@@ -138,6 +132,12 @@
   </si>
   <si>
     <t>PAPUA</t>
+  </si>
+  <si>
+    <t>KEPULAUAN BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>KEPULAUAN RIAU</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4">
         <v>95285.43</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6">
         <v>308842.68</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4">
         <v>3186469.91</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
         <v>2422782.3199999998</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4">
         <v>1560899.02</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
         <v>165690.21</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4">
         <v>2730907.09</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6">
         <v>747250.29</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4">
         <v>245233.24</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6">
         <v>156944.04999999999</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4">
         <v>118718.2</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6">
         <v>255797.28</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4">
         <v>199947.9</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6">
         <v>251256.54</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4">
         <v>921332.98</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6">
         <v>138718.18</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4">
         <v>157028.35999999999</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6">
         <v>323617.15999999997</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4">
         <v>605144.68000000005</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6">
         <v>158761.13</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4">
         <v>47574.43</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6">
         <v>54070.98</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4">
         <v>53692.91</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="6">
         <v>70902.61</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4">
         <v>91291.75</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="35" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="6">
         <v>262515.82</v>
